--- a/Daves_results/Sepc-real-disjoint.xlsx
+++ b/Daves_results/Sepc-real-disjoint.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sepc-real-disjoint" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sepc-real-disjoint" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sepc-real-disjoint'!$A$1:$S$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sepc-real-disjoint'!$A$1:$S$253</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="334">
   <si>
     <t>alpha</t>
   </si>
@@ -1006,6 +1010,24 @@
   </si>
   <si>
     <t>run time</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of 1.0-Entropy</t>
+  </si>
+  <si>
+    <t>Average of Accuracy</t>
+  </si>
+  <si>
+    <t>Average of F1Measure</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1115,11 +1137,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1176,7 +1203,6660 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sepc-real-disjoint.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 1.0-Entropy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diabetes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>glass</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>liver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pendigits16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shape</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27449349111052029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6136293521141114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7073032001940586E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97781651973503758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91857052558539098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diabetes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>glass</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>liver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pendigits16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shape</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.65020978009259145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45508826583592893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58792270531400914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21812601596428591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35868055555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of F1Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diabetes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>glass</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>liver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pendigits16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shape</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36318648386936042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38324910958236252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34615848298751661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48355741071901953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5152216255050045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="76149888"/>
+        <c:axId val="76151424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76149888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76151424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76151424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76149888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hoffer, Aaron" refreshedDate="41424.320524074072" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="253">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:S1048576" sheet="Sepc-real-disjoint"/>
+  </cacheSource>
+  <cacheFields count="19">
+    <cacheField name="date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-03-24T01:17:00" maxDate="2013-03-25T12:53:00"/>
+    </cacheField>
+    <cacheField name="alpha" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1E-3" maxValue="0.1"/>
+    </cacheField>
+    <cacheField name=" beta" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.2" maxValue="0.35"/>
+    </cacheField>
+    <cacheField name=" epsilon" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1E-3" maxValue="1E-3"/>
+    </cacheField>
+    <cacheField name=" mu_0" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name=" numClusters" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name=" w" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="20" count="4">
+        <n v="20"/>
+        <n v="10"/>
+        <n v="5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" minSubspaceSize" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="0.5"/>
+    </cacheField>
+    <cacheField name=" disjointMode" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="data set" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="breast"/>
+        <s v="diabetes"/>
+        <s v="glass"/>
+        <s v="liver"/>
+        <s v="pendigits16"/>
+        <s v="shape"/>
+        <s v="vowel"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="run time" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.0909090909090898E-2" maxValue="0.76262626262626199" count="88">
+        <n v="0.76262626262626199"/>
+        <n v="0.63151041666666596"/>
+        <n v="0.62890625"/>
+        <n v="0.64322916666666596"/>
+        <n v="0.65104166666666596"/>
+        <n v="0.67578125"/>
+        <n v="0.65625"/>
+        <n v="0.63411458333333304"/>
+        <n v="0.64453125"/>
+        <n v="0.65885416666666596"/>
+        <n v="0.58411214953270996"/>
+        <n v="0.467289719626168"/>
+        <n v="0.5"/>
+        <n v="0.44392523364485897"/>
+        <n v="0.52803738317756999"/>
+        <n v="0.41588785046728899"/>
+        <n v="0.63084112149532701"/>
+        <n v="0.59345794392523299"/>
+        <n v="0.44859813084112099"/>
+        <n v="0.48130841121495299"/>
+        <n v="0.49532710280373798"/>
+        <n v="0.50934579439252303"/>
+        <n v="0.55140186915887801"/>
+        <n v="0.56074766355140104"/>
+        <n v="0.49065420560747602"/>
+        <n v="0.47196261682242902"/>
+        <n v="0.47663551401869098"/>
+        <n v="0.55607476635513997"/>
+        <n v="0.54672897196261605"/>
+        <n v="0.355140186915887"/>
+        <n v="0.59710144927536202"/>
+        <n v="0.57971014492753603"/>
+        <n v="0.55652173913043401"/>
+        <n v="0.57681159420289796"/>
+        <n v="0.57101449275362304"/>
+        <n v="0.58840579710144902"/>
+        <n v="0.60869565217391297"/>
+        <n v="0.62608695652173896"/>
+        <n v="0.57391304347826"/>
+        <n v="0.64927536231883998"/>
+        <n v="0.58260869565217299"/>
+        <n v="0.55942028985507197"/>
+        <n v="0.62028985507246304"/>
+        <n v="0.60579710144927501"/>
+        <n v="0.63478260869565195"/>
+        <n v="0.42754203362690102"/>
+        <n v="0.38043768348011697"/>
+        <n v="0.40672538030424299"/>
+        <n v="0.40659194021884099"/>
+        <n v="0.116226314384841"/>
+        <n v="0.12596744061916099"/>
+        <n v="0.119562316519882"/>
+        <n v="0.10408326661329"/>
+        <m/>
+        <n v="0.63124999999999998"/>
+        <n v="0.6875"/>
+        <n v="0.66874999999999996"/>
+        <n v="0.63749999999999996"/>
+        <n v="0.58125000000000004"/>
+        <n v="0.68125000000000002"/>
+        <n v="0.60624999999999996"/>
+        <n v="0.56874999999999998"/>
+        <n v="0.44374999999999998"/>
+        <n v="0.46250000000000002"/>
+        <n v="0.47499999999999998"/>
+        <n v="0.48749999999999999"/>
+        <n v="0.49375000000000002"/>
+        <n v="0.31874999999999998"/>
+        <n v="0.30625000000000002"/>
+        <n v="0.32500000000000001"/>
+        <n v="0.27500000000000002"/>
+        <n v="0.3125"/>
+        <n v="0.125"/>
+        <n v="0.46565656565656499"/>
+        <n v="0.45555555555555499"/>
+        <n v="0.41515151515151499"/>
+        <n v="0.41010101010101002"/>
+        <n v="0.40909090909090901"/>
+        <n v="0.38888888888888801"/>
+        <n v="0.36565656565656501"/>
+        <n v="0.26060606060606001"/>
+        <n v="0.178787878787878"/>
+        <n v="0.14646464646464599"/>
+        <n v="0.118181818181818"/>
+        <n v="9.8989898989899003E-2"/>
+        <n v="9.3939393939393906E-2"/>
+        <n v="9.19191919191919E-2"/>
+        <n v="9.0909090909090898E-2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1.0-ClusErr" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.495588235294117"/>
+    </cacheField>
+    <cacheField name="ClusterDist" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="NumOfCluster " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1113"/>
+    </cacheField>
+    <cacheField name="Coverage" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.99420289855072397"/>
+    </cacheField>
+    <cacheField name="1.0-Entropy" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="3.2659087981001797E-5" maxValue="1" count="143">
+        <n v="0.69893622702800595"/>
+        <n v="0.54392264269642798"/>
+        <n v="0.46687153723720498"/>
+        <n v="0.62359210205122695"/>
+        <n v="0.61404813943666203"/>
+        <n v="0.64554145908326199"/>
+        <n v="0.50268818460550402"/>
+        <n v="0.60644464254807595"/>
+        <n v="0.70853653313721798"/>
+        <n v="0.69696969696969702"/>
+        <n v="0.73480662983425404"/>
+        <n v="0.70089026072292304"/>
+        <n v="0.69811320754716899"/>
+        <n v="0.58730158730158699"/>
+        <n v="0.78846153846153799"/>
+        <n v="0.69230769230769196"/>
+        <s v="undef"/>
+        <n v="0.24667595621087399"/>
+        <n v="0.28663313136756902"/>
+        <n v="0.28902762345250399"/>
+        <n v="0.23755321519700001"/>
+        <n v="0.26011712315952501"/>
+        <n v="0.26078004633067298"/>
+        <n v="0.27522999657758601"/>
+        <n v="0.32465812953951201"/>
+        <n v="0.128472161047613"/>
+        <n v="0.40505669229291502"/>
+        <n v="0.38568868527183903"/>
+        <n v="0.150400678474294"/>
+        <n v="0.411502473621293"/>
+        <n v="0.285879291112349"/>
+        <n v="0.33146330136267199"/>
+        <n v="0.36885308332486599"/>
+        <n v="0.104347591091562"/>
+        <n v="0.12368768244837"/>
+        <n v="7.1324818906334603E-2"/>
+        <n v="0.43919600350783"/>
+        <n v="0.35547305674600599"/>
+        <n v="0.38100293625584902"/>
+        <n v="0.41289835294735699"/>
+        <n v="5.1921756406094602E-2"/>
+        <n v="0.599674294195227"/>
+        <n v="0.56829278326102795"/>
+        <n v="0.54287908101071003"/>
+        <n v="0.52730383476408704"/>
+        <n v="0.542438135279804"/>
+        <n v="0.49326674517164099"/>
+        <n v="0.66457607269781704"/>
+        <n v="0.61123758125427896"/>
+        <n v="0.48113553869728898"/>
+        <n v="0.62367826252748404"/>
+        <n v="0.54874659873491705"/>
+        <n v="0.57552405286289898"/>
+        <n v="0.62076670439074799"/>
+        <n v="0.63251638275364297"/>
+        <n v="0.47642436819600797"/>
+        <n v="0.60050361416115705"/>
+        <n v="0.74571910139511499"/>
+        <n v="0.752019010409127"/>
+        <n v="0.66552338252210497"/>
+        <n v="0.72006780677562299"/>
+        <n v="0.64674990676139099"/>
+        <n v="0.72054055086090096"/>
+        <n v="0.65341312047940303"/>
+        <n v="0.71410752157627"/>
+        <n v="7.5038931790746194E-2"/>
+        <n v="2.8695958206745101E-2"/>
+        <n v="6.3683268058933803E-2"/>
+        <n v="5.4477155639000997E-2"/>
+        <n v="3.3505129924721502E-2"/>
+        <n v="0.10349717866451801"/>
+        <n v="6.5720547221475398E-2"/>
+        <n v="6.4245630597673895E-2"/>
+        <n v="0.118725080744884"/>
+        <n v="3.3064957127333899E-2"/>
+        <n v="4.9766256571561002E-2"/>
+        <n v="3.3668994524557599E-2"/>
+        <n v="0.160380765195939"/>
+        <n v="0.14702070500728301"/>
+        <n v="9.3243699111082906E-2"/>
+        <n v="5.32243243454553E-2"/>
+        <n v="4.3217784883933401E-2"/>
+        <n v="0.16656294024476501"/>
+        <n v="0.136821503832911"/>
+        <n v="3.9878991145338598E-2"/>
+        <n v="0.101579458632837"/>
+        <n v="3.4994024913327898E-2"/>
+        <n v="0.108296820413621"/>
+        <n v="4.0442661247928599E-2"/>
+        <n v="0.95452100089552205"/>
+        <n v="0.96279750720329305"/>
+        <n v="0.96689926091816503"/>
+        <n v="0.94056308138867495"/>
+        <n v="0.98708767764632099"/>
+        <n v="0.98168209747464896"/>
+        <n v="0.98461457182375001"/>
+        <n v="1"/>
+        <m/>
+        <n v="0.86221225928593404"/>
+        <n v="0.842565708198453"/>
+        <n v="0.86807527349150804"/>
+        <n v="0.86537488625345704"/>
+        <n v="0.86036151466806798"/>
+        <n v="0.84473191727146202"/>
+        <n v="0.86040437482488596"/>
+        <n v="0.79122371934884805"/>
+        <n v="0.94500494693158699"/>
+        <n v="0.92029303231987702"/>
+        <n v="0.98134590357142804"/>
+        <n v="0.95413559476744003"/>
+        <n v="0.919455776139813"/>
+        <n v="0.948451998281576"/>
+        <n v="0.93417130150141303"/>
+        <n v="0.91575128296622599"/>
+        <n v="0.97210242922077805"/>
+        <n v="0.96620019177295702"/>
+        <n v="0.96780970645043496"/>
+        <n v="0.96736570240147601"/>
+        <n v="0.968453083640061"/>
+        <n v="0.97371126026785504"/>
+        <n v="0.95627911331168503"/>
+        <n v="0.96021163716215996"/>
+        <n v="0.57170171201817199"/>
+        <n v="0.53817584923307205"/>
+        <n v="0.51683770016713104"/>
+        <n v="0.52639658522567001"/>
+        <n v="0.54028721548690495"/>
+        <n v="0.48153102241457602"/>
+        <n v="0.43893644881481803"/>
+        <n v="0.46604079479895899"/>
+        <n v="0.62929284456616297"/>
+        <n v="0.72212488718887002"/>
+        <n v="0.79917684182728099"/>
+        <n v="0.82162778575071405"/>
+        <n v="0.90366227869298199"/>
+        <n v="0.91864459267388199"/>
+        <n v="0.87706051749615799"/>
+        <n v="0.92036589226617904"/>
+        <n v="3.2659087981001797E-5"/>
+        <n v="0.92282477438231203"/>
+        <n v="0.93345751146463096"/>
+        <n v="0.95590896043324103"/>
+        <n v="0.94452359503661598"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="F1Measure" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.90952718958630097" count="148">
+        <n v="0.824975417895771"/>
+        <n v="0.71329455754050597"/>
+        <n v="0.62848614868015995"/>
+        <n v="0.76292042657916304"/>
+        <n v="0.75996168582375401"/>
+        <n v="0.80077041602465304"/>
+        <n v="0.37615925807483203"/>
+        <n v="0.28049840625905498"/>
+        <n v="0.79140328697850804"/>
+        <n v="0.73725905373831702"/>
+        <n v="0.81063899868247602"/>
+        <n v="0.75106133801785901"/>
+        <n v="0.58501683501683499"/>
+        <n v="0.41574585635359101"/>
+        <n v="0.60631929046563104"/>
+        <n v="0.36864440707822799"/>
+        <n v="0"/>
+        <n v="0.66169833975075498"/>
+        <n v="0.70094363607556398"/>
+        <n v="0.67244868803276303"/>
+        <n v="0.61305026522343298"/>
+        <n v="0.69099931957015004"/>
+        <n v="0.65910260809883303"/>
+        <n v="0.69722805823518896"/>
+        <n v="0.73280037664783404"/>
+        <n v="0.44950628749850402"/>
+        <n v="0.47864540522768301"/>
+        <n v="0.72530923095605704"/>
+        <n v="0.49534679543459098"/>
+        <n v="0.58683332183621295"/>
+        <n v="0.67508622205908198"/>
+        <n v="0.68376606199549494"/>
+        <n v="0.64726748403304801"/>
+        <n v="0.109060402684563"/>
+        <n v="0.115894039735099"/>
+        <n v="0.102866779089376"/>
+        <n v="0.52516922930309895"/>
+        <n v="0.69180927721325602"/>
+        <n v="0.66368871208556601"/>
+        <n v="0.66034382190704899"/>
+        <n v="3.5849056603773501E-2"/>
+        <n v="0.58495296092930704"/>
+        <n v="0.538047229608143"/>
+        <n v="0.50039552759041495"/>
+        <n v="0.46661861336503901"/>
+        <n v="0.52805908365702903"/>
+        <n v="0.457205697528278"/>
+        <n v="0.61210982631248401"/>
+        <n v="0.59525664904299103"/>
+        <n v="0.42821469523553701"/>
+        <n v="0.61350338843651597"/>
+        <n v="0.58866822913433003"/>
+        <n v="0.52963189166028901"/>
+        <n v="0.62914226938210904"/>
+        <n v="0.63377957994695699"/>
+        <n v="0.46501927266633097"/>
+        <n v="0.54411481764422898"/>
+        <n v="0.69716087163042795"/>
+        <n v="0.63608173442304705"/>
+        <n v="0.66618677832223505"/>
+        <n v="0.605744996671154"/>
+        <n v="0.50641013981350103"/>
+        <n v="0.711618653822648"/>
+        <n v="0.64479663749070104"/>
+        <n v="0.61424840065135"/>
+        <n v="0.59590683258124799"/>
+        <n v="0.42804333970681901"/>
+        <n v="0.54579124579124505"/>
+        <n v="0.55776077121474699"/>
+        <n v="0.52467196628675405"/>
+        <n v="0.59901371551856897"/>
+        <n v="0.52895868163362703"/>
+        <n v="0.59262193823216103"/>
+        <n v="0.63355961189445698"/>
+        <n v="0.44795914748749899"/>
+        <n v="0.45955633438209398"/>
+        <n v="0.47371278617319701"/>
+        <n v="0.62018221429986098"/>
+        <n v="0.61956216933689701"/>
+        <n v="0.51324942791761996"/>
+        <n v="0.34113459879206198"/>
+        <n v="0.566816870302425"/>
+        <n v="0.454417293233082"/>
+        <n v="0.40988565639021501"/>
+        <n v="0.49497661527801801"/>
+        <n v="0.51794832291574899"/>
+        <n v="0.38830001004722198"/>
+        <n v="0.64285714285714202"/>
+        <n v="0.50481869527788803"/>
+        <n v="0.89935084384645902"/>
+        <n v="0.90952718958630097"/>
+        <n v="0.90946549698711698"/>
+        <n v="0.88730249277256901"/>
+        <n v="0.57619775684391195"/>
+        <n v="0.67263779787412303"/>
+        <n v="0.45925949035292402"/>
+        <n v="3.6011482180919501E-3"/>
+        <n v="1.2777924763108599E-3"/>
+        <n v="5.1150895140664903E-4"/>
+        <m/>
+        <n v="0.79708730751501999"/>
+        <n v="0.81030976095222995"/>
+        <n v="0.84357141172571704"/>
+        <n v="0.82573316531281404"/>
+        <n v="0.800996475153961"/>
+        <n v="0.807789857936139"/>
+        <n v="0.785112256164887"/>
+        <n v="0.72406796525971096"/>
+        <n v="0.84784825311141099"/>
+        <n v="0.79020474917475403"/>
+        <n v="0.82620785181760703"/>
+        <n v="0.803896731442588"/>
+        <n v="0.82151730775322196"/>
+        <n v="0.85626611293882005"/>
+        <n v="0.80640011305394199"/>
+        <n v="0.82283988986775303"/>
+        <n v="0.67819558609032204"/>
+        <n v="0.71764404193912501"/>
+        <n v="0.66818832336575895"/>
+        <n v="0.74770481210109596"/>
+        <n v="0.67739813792445303"/>
+        <n v="0.66667623704975099"/>
+        <n v="0.70332248352114102"/>
+        <n v="0.71899968700794303"/>
+        <n v="0.51564515030445301"/>
+        <n v="0.50152344785606695"/>
+        <n v="0.47898982130906298"/>
+        <n v="0.49374134791730201"/>
+        <n v="0.48497898683333401"/>
+        <n v="0.478752413682561"/>
+        <n v="0.42141951368911601"/>
+        <n v="0.45099512636811201"/>
+        <n v="0.61543967099971997"/>
+        <n v="0.68624348136215796"/>
+        <n v="0.74096141848848096"/>
+        <n v="0.76842923049520795"/>
+        <n v="0.81887165122671401"/>
+        <n v="0.81915634587153496"/>
+        <n v="0.79250368396454296"/>
+        <n v="9.81767180925666E-3"/>
+        <n v="1.7473174201601101E-2"/>
+        <n v="5.20095772308714E-2"/>
+        <n v="9.3772892366620203E-2"/>
+        <n v="1.5278838808250501E-2"/>
+        <n v="0.78819394891030703"/>
+        <n v="0.83685927344299205"/>
+        <n v="0.82067885787762496"/>
+        <n v="0.81469450860876802"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1.0-RNIA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.90706126687435096"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="253">
+  <r>
+    <d v="2013-03-24T01:21:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 56s (56961ms)"/>
+    <x v="0"/>
+    <n v="3.9485766758494002E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 5 3 1 4 3 5 3 7 8 5 6 8 7 11 8 "/>
+    <n v="89"/>
+    <n v="0.979797979797979"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.81481481481481399"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 06s (6542ms)"/>
+    <x v="0"/>
+    <n v="3.7037037037037E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 10 2 3 2 8 3 1 7 4 6 4 2 1 0 0 "/>
+    <n v="53"/>
+    <n v="0.88383838383838298"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.65840220385674897"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 13s (13028ms)"/>
+    <x v="0"/>
+    <n v="3.7037037037037E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 3 6 4 5 4 3 4 7 3 3 6 2 0 0 "/>
+    <n v="54"/>
+    <n v="0.88383838383838298"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.66758494031221305"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 01s (1173ms)"/>
+    <x v="0"/>
+    <n v="3.4894398530762101E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 3 4 4 3 3 5 6 7 9 4 8 11 6 9 "/>
+    <n v="85"/>
+    <n v="0.919191919191919"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.76553412917049202"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 01s (1997ms)"/>
+    <x v="0"/>
+    <n v="3.4588307315579998E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 4 5 5 1 5 5 5 4 5 10 12 10 8 "/>
+    <n v="82"/>
+    <n v="0.92424242424242398"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.79384756657483901"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:27:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 01m 08s (68946ms)"/>
+    <x v="0"/>
+    <n v="2.7548209366391099E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 5 5 2 6 6 5 4 2 11 8 5 6 7 10 7 "/>
+    <n v="90"/>
+    <n v="0.98484848484848397"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="0.80440771349862195"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 27s (27412ms)"/>
+    <x v="0"/>
+    <n v="2.1579430670339701E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 10 5 4 3 1 0 0 0 0 0 0 0 0 0 "/>
+    <n v="27"/>
+    <n v="0.36868686868686801"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="0.23232323232323199"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 13s (13195ms)"/>
+    <x v="0"/>
+    <n v="1.9589837771655901E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 6 2 3 5 3 0 0 1 0 1 0 0 0 0 0 "/>
+    <n v="21"/>
+    <n v="0.28282828282828198"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="0.18288950107131899"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:20:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 01m 41s (101521ms)"/>
+    <x v="0"/>
+    <n v="1.8671564126109499E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 7 6 9 9 5 10 6 5 8 6 8 6 0 2 0 1 "/>
+    <n v="97"/>
+    <n v="0.91414141414141403"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="0.63973063973063904"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 04s (4085ms)"/>
+    <x v="0"/>
+    <n v="1.83654729109274E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 11 8 8 13 6 7 9 6 7 3 2 2 0 0 "/>
+    <n v="86"/>
+    <n v="0.83333333333333304"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="0.60667278849096995"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:25:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 01m 45s (105900ms)"/>
+    <x v="0"/>
+    <n v="1.83654729109274E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 8 8 10 10 5 12 5 9 9 3 7 6 3 4 1 0 0 "/>
+    <n v="100"/>
+    <n v="0.91414141414141403"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="0.63131313131313105"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 02s (2057ms)"/>
+    <x v="0"/>
+    <n v="1.7753290480563101E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 11 10 6 8 14 10 7 7 4 7 4 0 0 0 0 "/>
+    <n v="88"/>
+    <n v="0.82323232323232298"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="0.58448117539026601"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:22:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 02m 15s (135551ms)"/>
+    <x v="0"/>
+    <n v="1.37741046831956E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 13 7 8 7 5 2 1 0 0 0 0 0 0 0 0 0 "/>
+    <n v="57"/>
+    <n v="0.53535353535353503"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="0.310376492194674"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 04s (4251ms)"/>
+    <x v="0"/>
+    <n v="1.34680134680135E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 12 6 9 5 1 0 0 0 0 0 0 0 0 0 0 "/>
+    <n v="33"/>
+    <n v="0.31818181818181801"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="0.19528619528619501"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 02m 22s (142275ms)"/>
+    <x v="0"/>
+    <n v="1.34680134680135E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 13 13 9 8 5 6 2 0 0 0 0 0 0 0 0 0 0 "/>
+    <n v="56"/>
+    <n v="0.52525252525252497"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="0.30272421181511999"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 02s (2291ms)"/>
+    <x v="0"/>
+    <n v="1.3161922252831301E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 6 7 10 4 0 0 0 0 0 0 0 0 0 0 0 "/>
+    <n v="27"/>
+    <n v="0.26262626262626199"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="0.16268748086929899"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:28:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 01s (1469ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="0"/>
+    <s v="00h 00m 02s (2147ms)"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (489ms)"/>
+    <x v="1"/>
+    <n v="0.1962890625"/>
+    <s v="0 0 0 0 3 8 19 19 "/>
+    <n v="49"/>
+    <n v="0.91145833333333304"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="0.74560546875"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:43:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 45s (45699ms)"/>
+    <x v="2"/>
+    <n v="0.17708333333333301"/>
+    <s v="0 0 0 0 5 21 25 24 "/>
+    <n v="75"/>
+    <n v="0.98567708333333304"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="0.84488932291666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 01s (1081ms)"/>
+    <x v="3"/>
+    <n v="0.17431640625"/>
+    <s v="0 0 0 0 0 7 9 31 "/>
+    <n v="47"/>
+    <n v="0.90755208333333304"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="0.78190104166666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (816ms)"/>
+    <x v="4"/>
+    <n v="0.15755208333333301"/>
+    <s v="0 0 0 1 0 8 12 21 "/>
+    <n v="42"/>
+    <n v="0.90494791666666596"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="0.66682942708333304"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:46:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 46s (46726ms)"/>
+    <x v="5"/>
+    <n v="0.15625"/>
+    <s v="0 0 0 2 4 20 18 20 "/>
+    <n v="64"/>
+    <n v="0.99088541666666596"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="0.82552083333333304"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (578ms)"/>
+    <x v="6"/>
+    <n v="0.15234375"/>
+    <s v="0 0 0 0 1 12 14 14 "/>
+    <n v="41"/>
+    <n v="0.90364583333333304"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="0.75537109375"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:40:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 47s (47794ms)"/>
+    <x v="7"/>
+    <n v="0.10546875"/>
+    <s v="0 0 1 1 8 19 20 22 "/>
+    <n v="71"/>
+    <n v="0.9921875"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="0.83854166666666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:34:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 34s (34299ms)"/>
+    <x v="4"/>
+    <n v="0.103841145833333"/>
+    <s v="0 0 0 2 9 20 25 25 "/>
+    <n v="81"/>
+    <n v="0.99348958333333304"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="0.80924479166666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:41:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 43s (43125ms)"/>
+    <x v="4"/>
+    <n v="6.8359375E-2"/>
+    <s v="1 1 1 3 4 15 10 4 "/>
+    <n v="39"/>
+    <n v="0.94140625"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="0.27408854166666602"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 02s (2829ms)"/>
+    <x v="4"/>
+    <n v="6.0221354166666602E-2"/>
+    <s v="0 0 0 1 2 5 16 24 "/>
+    <n v="48"/>
+    <n v="0.51692708333333304"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="0.38020833333333298"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:32:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 01m 30s (90335ms)"/>
+    <x v="4"/>
+    <n v="5.6640625E-2"/>
+    <s v="0 0 1 8 37 46 41 24 "/>
+    <n v="157"/>
+    <n v="0.96354166666666596"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="0.64029947916666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:44:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 50s (50711ms)"/>
+    <x v="4"/>
+    <n v="5.5989583333333301E-2"/>
+    <s v="1 1 3 1 10 21 15 2 "/>
+    <n v="54"/>
+    <n v="0.91927083333333304"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="0.27473958333333298"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 02s (2942ms)"/>
+    <x v="4"/>
+    <n v="5.46875E-2"/>
+    <s v="0 0 0 1 2 18 65 22 "/>
+    <n v="108"/>
+    <n v="0.75130208333333304"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="0.57926432291666596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:45:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 01m 17s (77335ms)"/>
+    <x v="6"/>
+    <n v="5.46875E-2"/>
+    <s v="0 1 2 7 15 34 26 15 "/>
+    <n v="100"/>
+    <n v="0.95833333333333304"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="0.60725911458333304"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:38:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 01m 38s (98530ms)"/>
+    <x v="8"/>
+    <n v="5.2408854166666602E-2"/>
+    <s v="0 0 2 8 24 43 34 22 "/>
+    <n v="133"/>
+    <n v="0.97265625"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="0.62646484375"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:35:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 03m 37s (217339ms)"/>
+    <x v="4"/>
+    <n v="4.1341145833333301E-2"/>
+    <s v="0 1 3 6 71 54 20 4 "/>
+    <n v="159"/>
+    <n v="0.88802083333333304"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="0.45735677083333298"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (359ms)"/>
+    <x v="4"/>
+    <n v="4.1015625E-2"/>
+    <s v="0 0 0 1 0 0 0 1 "/>
+    <n v="2"/>
+    <n v="0.125"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="6.3802083333333301E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (561ms)"/>
+    <x v="4"/>
+    <n v="4.0690104166666602E-2"/>
+    <s v="0 0 0 1 0 1 3 0 "/>
+    <n v="5"/>
+    <n v="0.13541666666666599"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="7.1940104166666602E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (420ms)"/>
+    <x v="4"/>
+    <n v="3.9713541666666602E-2"/>
+    <s v="0 0 0 1 0 0 0 0 "/>
+    <n v="1"/>
+    <n v="0.12109375"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="6.0546875E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 03s (3142ms)"/>
+    <x v="4"/>
+    <n v="3.759765625E-2"/>
+    <s v="0 0 0 0 1 20 32 25 "/>
+    <n v="78"/>
+    <n v="0.59895833333333304"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="0.48616536458333298"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:42:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 01m 36s (96281ms)"/>
+    <x v="9"/>
+    <n v="3.3365885416666602E-2"/>
+    <s v="0 0 4 4 16 41 37 25 "/>
+    <n v="127"/>
+    <n v="0.94921875"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="0.64339192708333304"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 02m 46s (166517ms)"/>
+    <x v="4"/>
+    <n v="3.271484375E-2"/>
+    <s v="0 0 4 8 83 42 26 3 "/>
+    <n v="166"/>
+    <n v="0.87760416666666596"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="0.49951171875"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:47:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 02s (2951ms)"/>
+    <x v="4"/>
+    <n v="2.9134114583333301E-2"/>
+    <s v="0 0 0 0 8 29 84 21 "/>
+    <n v="142"/>
+    <n v="0.80859375"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="0.6318359375"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (500ms)"/>
+    <x v="4"/>
+    <n v="1.5462239583333299E-2"/>
+    <s v="0 0 0 0 1 0 0 0 "/>
+    <n v="1"/>
+    <n v="3.90625E-2"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="2.44140625E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (12ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:29:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:30:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="1"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (365ms)"/>
+    <x v="10"/>
+    <n v="0.42990654205607398"/>
+    <s v="0 0 0 0 0 0 4 5 8 "/>
+    <n v="17"/>
+    <n v="0.91121495327102797"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="0.86656282450674904"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 06s (6875ms)"/>
+    <x v="11"/>
+    <n v="0.42263759086188901"/>
+    <s v="0 0 0 0 2 4 7 3 6 "/>
+    <n v="22"/>
+    <n v="0.97196261682242902"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="0.90706126687435096"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (292ms)"/>
+    <x v="12"/>
+    <n v="0.41069574247144303"/>
+    <s v="0 0 0 0 0 1 4 5 7 "/>
+    <n v="17"/>
+    <n v="0.920560747663551"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="0.87902388369677997"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (320ms)"/>
+    <x v="13"/>
+    <n v="0.36604361370716498"/>
+    <s v="0 0 0 0 0 1 2 4 9 "/>
+    <n v="16"/>
+    <n v="0.92990654205607404"/>
+    <x v="44"/>
+    <x v="44"/>
+    <n v="0.88058151609553403"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 05s (5347ms)"/>
+    <x v="14"/>
+    <n v="0.354620976116303"/>
+    <s v="0 0 0 1 2 6 1 3 7 "/>
+    <n v="20"/>
+    <n v="0.96728971962616805"/>
+    <x v="45"/>
+    <x v="45"/>
+    <n v="0.82969885773624097"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 06s (6415ms)"/>
+    <x v="15"/>
+    <n v="0.28712357217030099"/>
+    <s v="0 0 0 3 1 6 4 3 3 "/>
+    <n v="20"/>
+    <n v="0.96728971962616805"/>
+    <x v="46"/>
+    <x v="46"/>
+    <n v="0.72585669781931395"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (463ms)"/>
+    <x v="16"/>
+    <n v="0.27725856697819301"/>
+    <s v="0 0 0 0 0 2 9 5 11 "/>
+    <n v="27"/>
+    <n v="0.86915887850467199"/>
+    <x v="47"/>
+    <x v="47"/>
+    <n v="0.72274143302180605"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 06s (6532ms)"/>
+    <x v="17"/>
+    <n v="0.273104880581516"/>
+    <s v="0 0 0 0 7 4 4 5 7 "/>
+    <n v="27"/>
+    <n v="0.93925233644859796"/>
+    <x v="48"/>
+    <x v="48"/>
+    <n v="0.73468328141225303"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (290ms)"/>
+    <x v="18"/>
+    <n v="0.27154724818276199"/>
+    <s v="0 0 0 0 1 1 2 4 5 "/>
+    <n v="13"/>
+    <n v="0.90654205607476601"/>
+    <x v="49"/>
+    <x v="49"/>
+    <n v="0.60176531671858702"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (415ms)"/>
+    <x v="13"/>
+    <n v="0.26583592938733103"/>
+    <s v="0 0 0 0 0 1 6 10 9 "/>
+    <n v="26"/>
+    <n v="0.87850467289719603"/>
+    <x v="50"/>
+    <x v="50"/>
+    <n v="0.77414330218068494"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 06s (6434ms)"/>
+    <x v="19"/>
+    <n v="0.234164070612668"/>
+    <s v="0 0 0 1 7 5 2 2 10 "/>
+    <n v="27"/>
+    <n v="0.95327102803738295"/>
+    <x v="51"/>
+    <x v="51"/>
+    <n v="0.70612668743509799"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 04s (4682ms)"/>
+    <x v="20"/>
+    <n v="0.209241952232606"/>
+    <s v="0 0 0 1 3 7 4 2 6 "/>
+    <n v="23"/>
+    <n v="0.92523364485981296"/>
+    <x v="52"/>
+    <x v="52"/>
+    <n v="0.55036344755970901"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (380ms)"/>
+    <x v="21"/>
+    <n v="0.20560747663551401"/>
+    <s v="0 0 0 0 1 2 9 7 12 "/>
+    <n v="31"/>
+    <n v="0.89252336448598102"/>
+    <x v="53"/>
+    <x v="53"/>
+    <n v="0.70612668743509799"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (496ms)"/>
+    <x v="20"/>
+    <n v="0.201973001038421"/>
+    <s v="0 0 0 0 0 1 5 10 9 "/>
+    <n v="25"/>
+    <n v="0.88785046728971895"/>
+    <x v="54"/>
+    <x v="54"/>
+    <n v="0.74922118380062297"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 05s (5360ms)"/>
+    <x v="12"/>
+    <n v="0.201973001038421"/>
+    <s v="0 0 1 1 0 2 5 1 6 "/>
+    <n v="16"/>
+    <n v="0.96261682242990598"/>
+    <x v="55"/>
+    <x v="55"/>
+    <n v="0.42471443406022802"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 06s (6299ms)"/>
+    <x v="22"/>
+    <n v="0.178608515057113"/>
+    <s v="0 0 0 2 5 6 7 6 4 "/>
+    <n v="30"/>
+    <n v="0.94392523364485903"/>
+    <x v="56"/>
+    <x v="56"/>
+    <n v="0.57892004153686405"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 12s (12900ms)"/>
+    <x v="23"/>
+    <n v="0.152128764278297"/>
+    <s v="0 0 0 1 11 13 9 5 11 "/>
+    <n v="50"/>
+    <n v="0.89719626168224298"/>
+    <x v="57"/>
+    <x v="57"/>
+    <n v="0.60695742471443404"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (612ms)"/>
+    <x v="24"/>
+    <n v="0.14278296988577299"/>
+    <s v="0 0 0 0 1 4 9 12 14 "/>
+    <n v="40"/>
+    <n v="0.789719626168224"/>
+    <x v="58"/>
+    <x v="58"/>
+    <n v="0.63187954309449601"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 10s (10464ms)"/>
+    <x v="19"/>
+    <n v="0.138110072689511"/>
+    <s v="0 0 1 1 9 9 4 6 7 "/>
+    <n v="37"/>
+    <n v="0.86915887850467199"/>
+    <x v="59"/>
+    <x v="59"/>
+    <n v="0.48909657320872202"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (682ms)"/>
+    <x v="25"/>
+    <n v="0.137590861889927"/>
+    <s v="0 0 0 0 1 3 12 13 12 "/>
+    <n v="41"/>
+    <n v="0.78037383177570097"/>
+    <x v="60"/>
+    <x v="60"/>
+    <n v="0.61993769470404902"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (611ms)"/>
+    <x v="26"/>
+    <n v="0.13499480789200399"/>
+    <s v="0 0 0 1 0 0 5 9 12 "/>
+    <n v="27"/>
+    <n v="0.72429906542056"/>
+    <x v="61"/>
+    <x v="61"/>
+    <n v="0.50623052959501502"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 10s (10735ms)"/>
+    <x v="27"/>
+    <n v="0.128764278296988"/>
+    <s v="0 0 0 3 11 8 7 6 7 "/>
+    <n v="42"/>
+    <n v="0.89719626168224298"/>
+    <x v="62"/>
+    <x v="62"/>
+    <n v="0.60280373831775702"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:49:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 10s (10247ms)"/>
+    <x v="28"/>
+    <n v="0.12720664589823399"/>
+    <s v="0 0 0 2 11 6 6 9 9 "/>
+    <n v="43"/>
+    <n v="0.90654205607476601"/>
+    <x v="63"/>
+    <x v="63"/>
+    <n v="0.65420560747663503"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (535ms)"/>
+    <x v="18"/>
+    <n v="0.12253374870197201"/>
+    <s v="0 0 0 0 1 3 15 10 12 "/>
+    <n v="41"/>
+    <n v="0.77570093457943901"/>
+    <x v="64"/>
+    <x v="64"/>
+    <n v="0.61838006230529596"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:48:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="2"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (272ms)"/>
+    <x v="30"/>
+    <n v="0.405797101449275"/>
+    <s v="0 0 0 2 3 8 "/>
+    <n v="13"/>
+    <n v="0.92463768115942002"/>
+    <x v="65"/>
+    <x v="65"/>
+    <n v="0.87874396135265698"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 06s (6560ms)"/>
+    <x v="31"/>
+    <n v="0.319806763285024"/>
+    <s v="0 1 0 3 4 2 "/>
+    <n v="10"/>
+    <n v="0.99420289855072397"/>
+    <x v="66"/>
+    <x v="66"/>
+    <n v="0.66763285024154495"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (299ms)"/>
+    <x v="32"/>
+    <n v="0.28164251207729402"/>
+    <s v="0 0 0 0 6 6 "/>
+    <n v="12"/>
+    <n v="0.90434782608695596"/>
+    <x v="67"/>
+    <x v="67"/>
+    <n v="0.79855072463768095"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 08s (8175ms)"/>
+    <x v="31"/>
+    <n v="0.25748792270531401"/>
+    <s v="0 1 1 3 6 4 "/>
+    <n v="15"/>
+    <n v="0.99420289855072397"/>
+    <x v="68"/>
+    <x v="68"/>
+    <n v="0.73043478260869499"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (301ms)"/>
+    <x v="33"/>
+    <n v="0.25217391304347803"/>
+    <s v="0 0 0 2 0 9 "/>
+    <n v="11"/>
+    <n v="0.910144927536231"/>
+    <x v="69"/>
+    <x v="69"/>
+    <n v="0.86763285024154502"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 12s (12761ms)"/>
+    <x v="34"/>
+    <n v="0.25169082125603798"/>
+    <s v="0 0 1 5 7 11 "/>
+    <n v="24"/>
+    <n v="0.99130434782608701"/>
+    <x v="70"/>
+    <x v="70"/>
+    <n v="0.86618357487922704"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 07s (7511ms)"/>
+    <x v="35"/>
+    <n v="0.24057971014492699"/>
+    <s v="0 0 1 4 6 5 "/>
+    <n v="16"/>
+    <n v="0.98840579710144905"/>
+    <x v="71"/>
+    <x v="71"/>
+    <n v="0.61545893719806699"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 07s (7745ms)"/>
+    <x v="36"/>
+    <n v="0.19178743961352601"/>
+    <s v="1 2 1 2 4 0 "/>
+    <n v="10"/>
+    <n v="0.99420289855072397"/>
+    <x v="72"/>
+    <x v="72"/>
+    <n v="0.55120772946859897"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 06s (6200ms)"/>
+    <x v="37"/>
+    <n v="0.18405797101449201"/>
+    <s v="0 1 4 6 4 3 "/>
+    <n v="18"/>
+    <n v="0.97391304347826002"/>
+    <x v="73"/>
+    <x v="73"/>
+    <n v="0.52898550724637605"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (201ms)"/>
+    <x v="38"/>
+    <n v="0.16038647342995099"/>
+    <s v="0 1 0 1 3 5 "/>
+    <n v="10"/>
+    <n v="0.91884057971014399"/>
+    <x v="74"/>
+    <x v="74"/>
+    <n v="0.43091787439613499"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (319ms)"/>
+    <x v="37"/>
+    <n v="0.14492753623188401"/>
+    <s v="0 1 1 0 0 2 "/>
+    <n v="4"/>
+    <n v="0.64637681159420202"/>
+    <x v="75"/>
+    <x v="75"/>
+    <n v="0.25603864734299497"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (289ms)"/>
+    <x v="38"/>
+    <n v="0.14202898550724599"/>
+    <s v="0 0 2 2 0 2 "/>
+    <n v="6"/>
+    <n v="0.74202898550724605"/>
+    <x v="76"/>
+    <x v="76"/>
+    <n v="0.41207729468599003"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 10s (10961ms)"/>
+    <x v="39"/>
+    <n v="0.14202898550724599"/>
+    <s v="0 2 5 8 9 5 "/>
+    <n v="29"/>
+    <n v="0.96811594202898499"/>
+    <x v="77"/>
+    <x v="77"/>
+    <n v="0.51884057971014497"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (467ms)"/>
+    <x v="40"/>
+    <n v="0.12560386473429899"/>
+    <s v="0 0 0 4 24 6 "/>
+    <n v="34"/>
+    <n v="0.90434782608695596"/>
+    <x v="78"/>
+    <x v="78"/>
+    <n v="0.72318840579710097"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (393ms)"/>
+    <x v="35"/>
+    <n v="0.123671497584541"/>
+    <s v="0 1 0 3 12 5 "/>
+    <n v="21"/>
+    <n v="0.84637681159420197"/>
+    <x v="79"/>
+    <x v="79"/>
+    <n v="0.45024154589371901"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (283ms)"/>
+    <x v="31"/>
+    <n v="0.121739130434782"/>
+    <s v="0 1 0 1 4 0 "/>
+    <n v="6"/>
+    <n v="0.67826086956521703"/>
+    <x v="80"/>
+    <x v="80"/>
+    <n v="0.25555555555555498"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 06s (6445ms)"/>
+    <x v="41"/>
+    <n v="0.114975845410628"/>
+    <s v="1 2 0 2 4 1 "/>
+    <n v="10"/>
+    <n v="0.99130434782608701"/>
+    <x v="81"/>
+    <x v="81"/>
+    <n v="0.44444444444444398"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (349ms)"/>
+    <x v="42"/>
+    <n v="0.114492753623188"/>
+    <s v="0 0 1 4 0 3 "/>
+    <n v="8"/>
+    <n v="0.51304347826086905"/>
+    <x v="82"/>
+    <x v="82"/>
+    <n v="0.31014492753623102"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (423ms)"/>
+    <x v="43"/>
+    <n v="0.107729468599033"/>
+    <s v="0 0 1 4 5 5 "/>
+    <n v="15"/>
+    <n v="0.52753623188405796"/>
+    <x v="83"/>
+    <x v="83"/>
+    <n v="0.323671497584541"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 04s (4273ms)"/>
+    <x v="30"/>
+    <n v="9.8550724637681095E-2"/>
+    <s v="1 2 0 1 1 0 "/>
+    <n v="5"/>
+    <n v="0.98840579710144905"/>
+    <x v="84"/>
+    <x v="84"/>
+    <n v="0.20386473429951599"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (370ms)"/>
+    <x v="34"/>
+    <n v="9.5652173913043398E-2"/>
+    <s v="0 0 1 3 3 7 "/>
+    <n v="14"/>
+    <n v="0.74782608695652097"/>
+    <x v="85"/>
+    <x v="85"/>
+    <n v="0.57101449275362304"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:51:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 04s (4229ms)"/>
+    <x v="31"/>
+    <n v="8.93719806763284E-2"/>
+    <s v="2 0 0 1 1 0 "/>
+    <n v="4"/>
+    <n v="0.98840579710144905"/>
+    <x v="86"/>
+    <x v="86"/>
+    <n v="0.170048309178743"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 05s (5873ms)"/>
+    <x v="44"/>
+    <n v="8.93719806763284E-2"/>
+    <s v="1 3 1 3 4 1 "/>
+    <n v="13"/>
+    <n v="0.98840579710144905"/>
+    <x v="87"/>
+    <x v="87"/>
+    <n v="0.33091787439613501"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 03s (3669ms)"/>
+    <x v="40"/>
+    <n v="8.5507246376811605E-2"/>
+    <s v="2 1 0 0 1 0 "/>
+    <n v="4"/>
+    <n v="0.98550724637681097"/>
+    <x v="88"/>
+    <x v="88"/>
+    <n v="0.190821256038647"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:50:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="3"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="31"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T02:53:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 02m 49s (169015ms)"/>
+    <x v="45"/>
+    <n v="0.103499466239658"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 15 69 124 156 188 234 "/>
+    <n v="787"/>
+    <n v="0.90032025620496303"/>
+    <x v="89"/>
+    <x v="89"/>
+    <n v="0.79501100880704501"/>
+  </r>
+  <r>
+    <d v="2013-03-25T03:40:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 04m 22s (262094ms)"/>
+    <x v="46"/>
+    <n v="9.2323859087269797E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 11 34 112 160 211 295 "/>
+    <n v="823"/>
+    <n v="0.90045369629036498"/>
+    <x v="90"/>
+    <x v="90"/>
+    <n v="0.80870529757138998"/>
+  </r>
+  <r>
+    <d v="2013-03-25T04:41:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 07m 12s (432305ms)"/>
+    <x v="47"/>
+    <n v="8.6727715505737796E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 3 19 73 153 200 357 "/>
+    <n v="806"/>
+    <n v="0.90058713637576704"/>
+    <x v="91"/>
+    <x v="91"/>
+    <n v="0.82319188684280697"/>
+  </r>
+  <r>
+    <d v="2013-03-25T02:11:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 01m 46s (106297ms)"/>
+    <x v="48"/>
+    <n v="8.3266613290632396E-2"/>
+    <s v="0 0 0 0 0 0 0 0 1 8 39 89 122 157 142 204 "/>
+    <n v="762"/>
+    <n v="0.90072057646116899"/>
+    <x v="92"/>
+    <x v="92"/>
+    <n v="0.765996130237523"/>
+  </r>
+  <r>
+    <d v="2013-03-25T02:39:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 11m 59s (719010ms)"/>
+    <x v="49"/>
+    <n v="1.9999332799573E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 26 133 242 210 140 62 "/>
+    <n v="814"/>
+    <n v="0.43795036028822998"/>
+    <x v="93"/>
+    <x v="93"/>
+    <n v="0.35793634907926303"/>
+  </r>
+  <r>
+    <d v="2013-03-25T01:53:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 11m 25s (685695ms)"/>
+    <x v="50"/>
+    <n v="1.9649052575393601E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 72 282 291 257 148 63 "/>
+    <n v="1113"/>
+    <n v="0.54643714971977497"/>
+    <x v="94"/>
+    <x v="94"/>
+    <n v="0.438617560715238"/>
+  </r>
+  <r>
+    <d v="2013-03-25T03:22:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 15m 24s (924787ms)"/>
+    <x v="51"/>
+    <n v="1.7280491059514201E-2"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 3 33 153 177 150 61 "/>
+    <n v="577"/>
+    <n v="0.32425940752602"/>
+    <x v="95"/>
+    <x v="95"/>
+    <n v="0.27597911662663399"/>
+  </r>
+  <r>
+    <d v="2013-03-25T01:53:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 00m 08s (8766ms)"/>
+    <x v="52"/>
+    <n v="1.1342407259140499E-3"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 "/>
+    <n v="4"/>
+    <n v="1.8681611956231599E-3"/>
+    <x v="96"/>
+    <x v="96"/>
+    <n v="1.33440085401659E-3"/>
+  </r>
+  <r>
+    <d v="2013-03-25T02:38:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 00m 07s (7171ms)"/>
+    <x v="52"/>
+    <n v="5.17080330931452E-4"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 "/>
+    <n v="2"/>
+    <n v="6.6720042700827299E-4"/>
+    <x v="96"/>
+    <x v="97"/>
+    <n v="5.17080330931452E-4"/>
+  </r>
+  <r>
+    <d v="2013-03-25T04:11:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 00m 19s (19375ms)"/>
+    <x v="52"/>
+    <n v="2.3352014945288101E-4"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 "/>
+    <n v="1"/>
+    <n v="2.6688017080330899E-4"/>
+    <x v="96"/>
+    <x v="98"/>
+    <n v="2.3352014945288101E-4"/>
+  </r>
+  <r>
+    <d v="2013-03-25T03:22:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="00h 00m 05s (5477ms)"/>
+    <x v="52"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-24T01:52:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T02:22:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T02:52:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T03:22:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T03:52:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T04:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T04:53:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T05:53:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T06:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T06:53:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T07:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T07:53:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T08:23:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T08:53:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T09:23:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T09:53:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T10:23:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T10:53:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T11:23:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-24T11:53:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-25T12:23:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-25T12:53:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-25T01:23:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-25T04:11:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="4"/>
+    <s v="timed out after 30 minutes"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (503ms)"/>
+    <x v="54"/>
+    <n v="0.495588235294117"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 3 3 4 1 4 2 13 "/>
+    <n v="31"/>
+    <n v="0.92500000000000004"/>
+    <x v="98"/>
+    <x v="100"/>
+    <n v="0.85661764705882304"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 14s (14955ms)"/>
+    <x v="55"/>
+    <n v="0.48161764705882298"/>
+    <s v="0 0 0 0 0 0 0 1 4 1 5 3 2 4 2 3 13 "/>
+    <n v="38"/>
+    <n v="0.98124999999999996"/>
+    <x v="99"/>
+    <x v="101"/>
+    <n v="0.85735294117646998"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:19:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 16s (16431ms)"/>
+    <x v="56"/>
+    <n v="0.46029411764705802"/>
+    <s v="0 0 0 0 0 0 0 0 3 2 4 1 1 5 3 4 15 "/>
+    <n v="38"/>
+    <n v="0.97499999999999998"/>
+    <x v="100"/>
+    <x v="102"/>
+    <n v="0.88933823529411704"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:20:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 14s (14279ms)"/>
+    <x v="57"/>
+    <n v="0.43198529411764702"/>
+    <s v="0 0 0 0 0 0 0 1 4 1 6 2 3 3 1 2 12 "/>
+    <n v="35"/>
+    <n v="0.95625000000000004"/>
+    <x v="101"/>
+    <x v="103"/>
+    <n v="0.81507352941176403"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (603ms)"/>
+    <x v="58"/>
+    <n v="0.42904411764705802"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 5 2 2 1 3 4 17 "/>
+    <n v="35"/>
+    <n v="0.90625"/>
+    <x v="102"/>
+    <x v="104"/>
+    <n v="0.82941176470588196"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:21:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 16s (16822ms)"/>
+    <x v="59"/>
+    <n v="0.41433823529411701"/>
+    <s v="0 0 0 0 0 0 0 0 2 2 2 5 7 2 3 5 9 "/>
+    <n v="37"/>
+    <n v="0.96250000000000002"/>
+    <x v="103"/>
+    <x v="105"/>
+    <n v="0.840808823529411"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (470ms)"/>
+    <x v="60"/>
+    <n v="0.40735294117646997"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 4 2 3 2 3 7 14 "/>
+    <n v="35"/>
+    <n v="0.91249999999999998"/>
+    <x v="104"/>
+    <x v="106"/>
+    <n v="0.84264705882352897"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (648ms)"/>
+    <x v="61"/>
+    <n v="0.36213235294117602"/>
+    <s v="0 0 0 0 0 0 0 0 2 0 1 3 5 4 2 4 8 "/>
+    <n v="29"/>
+    <n v="0.91249999999999998"/>
+    <x v="105"/>
+    <x v="107"/>
+    <n v="0.72867647058823504"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:21:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 26s (26750ms)"/>
+    <x v="12"/>
+    <n v="0.34779411764705798"/>
+    <s v="0 0 0 0 0 0 0 0 6 3 3 5 4 2 7 9 11 "/>
+    <n v="50"/>
+    <n v="0.88749999999999996"/>
+    <x v="106"/>
+    <x v="108"/>
+    <n v="0.775367647058823"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 01s (1434ms)"/>
+    <x v="62"/>
+    <n v="0.33602941176470502"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 6 7 5 5 4 8 11 "/>
+    <n v="46"/>
+    <n v="0.81874999999999998"/>
+    <x v="107"/>
+    <x v="109"/>
+    <n v="0.72499999999999998"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (862ms)"/>
+    <x v="63"/>
+    <n v="0.33051470588235299"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 3 4 0 7 7 13 11 "/>
+    <n v="45"/>
+    <n v="0.79374999999999996"/>
+    <x v="108"/>
+    <x v="110"/>
+    <n v="0.73235294117646998"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (908ms)"/>
+    <x v="64"/>
+    <n v="0.29816176470588202"/>
+    <s v="0 0 0 0 0 0 0 0 0 1 4 6 6 4 5 4 17 "/>
+    <n v="47"/>
+    <n v="0.80625000000000002"/>
+    <x v="109"/>
+    <x v="111"/>
+    <n v="0.71911764705882297"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:18:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 26s (26905ms)"/>
+    <x v="65"/>
+    <n v="0.29154411764705801"/>
+    <s v="0 0 0 0 0 0 0 0 8 4 2 3 3 3 7 8 12 "/>
+    <n v="50"/>
+    <n v="0.88124999999999998"/>
+    <x v="110"/>
+    <x v="112"/>
+    <n v="0.75330882352941098"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:19:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 27s (27200ms)"/>
+    <x v="66"/>
+    <n v="0.28749999999999998"/>
+    <s v="0 0 0 0 0 0 0 0 8 3 3 5 2 2 7 11 12 "/>
+    <n v="53"/>
+    <n v="0.88749999999999996"/>
+    <x v="111"/>
+    <x v="113"/>
+    <n v="0.75588235294117601"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (632ms)"/>
+    <x v="12"/>
+    <n v="0.28455882352941098"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 2 5 2 8 5 12 12 "/>
+    <n v="46"/>
+    <n v="0.82499999999999996"/>
+    <x v="112"/>
+    <x v="114"/>
+    <n v="0.73823529411764699"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:22:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 22s (22874ms)"/>
+    <x v="12"/>
+    <n v="0.27647058823529402"/>
+    <s v="0 0 0 0 0 0 0 0 7 5 3 3 4 3 6 7 11 "/>
+    <n v="49"/>
+    <n v="0.88124999999999998"/>
+    <x v="113"/>
+    <x v="115"/>
+    <n v="0.74154411764705797"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 01s (1230ms)"/>
+    <x v="67"/>
+    <n v="0.20477941176470499"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 8 6 6 5 6 4 4 "/>
+    <n v="39"/>
+    <n v="0.61875000000000002"/>
+    <x v="114"/>
+    <x v="116"/>
+    <n v="0.50514705882352895"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:19:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 28s (28832ms)"/>
+    <x v="68"/>
+    <n v="0.18860294117647"/>
+    <s v="0 0 0 0 0 0 0 0 4 6 8 5 4 6 8 3 6 "/>
+    <n v="50"/>
+    <n v="0.7"/>
+    <x v="115"/>
+    <x v="117"/>
+    <n v="0.55441176470588205"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 01s (1670ms)"/>
+    <x v="69"/>
+    <n v="0.17941176470588199"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 6 11 5 5 3 4 6 "/>
+    <n v="40"/>
+    <n v="0.61250000000000004"/>
+    <x v="116"/>
+    <x v="118"/>
+    <n v="0.50220588235294095"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:22:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 31s (31449ms)"/>
+    <x v="69"/>
+    <n v="0.159191176470588"/>
+    <s v="0 0 0 0 0 0 0 0 6 10 9 3 3 7 5 5 5 "/>
+    <n v="53"/>
+    <n v="0.72499999999999998"/>
+    <x v="117"/>
+    <x v="119"/>
+    <n v="0.55477941176470502"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (988ms)"/>
+    <x v="68"/>
+    <n v="0.157720588235294"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 13 7 3 5 5 3 6 "/>
+    <n v="42"/>
+    <n v="0.61875000000000002"/>
+    <x v="118"/>
+    <x v="120"/>
+    <n v="0.49117647058823499"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (767ms)"/>
+    <x v="70"/>
+    <n v="0.156985294117647"/>
+    <s v="0 0 0 0 0 0 0 0 0 0 12 6 5 2 4 7 7 "/>
+    <n v="43"/>
+    <n v="0.6"/>
+    <x v="119"/>
+    <x v="121"/>
+    <n v="0.497058823529411"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:20:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 35s (35743ms)"/>
+    <x v="67"/>
+    <n v="0.151470588235294"/>
+    <s v="0 0 0 0 0 0 0 0 4 4 10 5 5 6 5 3 7 "/>
+    <n v="49"/>
+    <n v="0.6875"/>
+    <x v="120"/>
+    <x v="122"/>
+    <n v="0.53676470588235203"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:18:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 35s (35248ms)"/>
+    <x v="71"/>
+    <n v="0.14632352941176399"/>
+    <s v="0 0 0 0 0 0 0 0 5 8 12 4 7 1 2 5 7 "/>
+    <n v="51"/>
+    <n v="0.69374999999999998"/>
+    <x v="121"/>
+    <x v="123"/>
+    <n v="0.53051470588235194"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:18:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (10ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:17:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="5"/>
+    <s v="00h 00m 00s (11ms)"/>
+    <x v="72"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:43:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 01s (1078ms)"/>
+    <x v="73"/>
+    <n v="0.13020202020202001"/>
+    <s v="0 0 0 0 0 2 14 12 17 33 "/>
+    <n v="78"/>
+    <n v="0.91414141414141403"/>
+    <x v="122"/>
+    <x v="124"/>
+    <n v="0.78777777777777702"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:44:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 01s (1090ms)"/>
+    <x v="74"/>
+    <n v="0.12151515151515099"/>
+    <s v="0 0 0 0 1 1 7 13 12 36 "/>
+    <n v="70"/>
+    <n v="0.90404040404040398"/>
+    <x v="123"/>
+    <x v="125"/>
+    <n v="0.72515151515151499"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:43:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 01m 10s (70822ms)"/>
+    <x v="75"/>
+    <n v="0.12080808080808"/>
+    <s v="0 0 0 0 2 9 15 14 11 45 "/>
+    <n v="96"/>
+    <n v="0.99191919191919098"/>
+    <x v="124"/>
+    <x v="126"/>
+    <n v="0.80858585858585796"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:41:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 01m 42s (102629ms)"/>
+    <x v="76"/>
+    <n v="0.13373737373737299"/>
+    <s v="0 0 1 0 1 7 16 11 12 45 "/>
+    <n v="93"/>
+    <n v="0.99191919191919098"/>
+    <x v="125"/>
+    <x v="127"/>
+    <n v="0.79939393939393899"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:45:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 02s (2254ms)"/>
+    <x v="77"/>
+    <n v="0.12373737373737299"/>
+    <s v="0 0 0 0 0 1 4 9 13 46 "/>
+    <n v="73"/>
+    <n v="0.90101010101010104"/>
+    <x v="126"/>
+    <x v="128"/>
+    <n v="0.78959595959595896"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:33:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 01m 37s (97356ms)"/>
+    <x v="77"/>
+    <n v="0.13262626262626201"/>
+    <s v="0 0 1 1 0 9 4 17 7 38 "/>
+    <n v="77"/>
+    <n v="0.992929292929292"/>
+    <x v="127"/>
+    <x v="129"/>
+    <n v="0.75505050505050497"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:45:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (915ms)"/>
+    <x v="78"/>
+    <n v="0.123939393939393"/>
+    <s v="0 0 0 0 1 1 5 12 9 28 "/>
+    <n v="56"/>
+    <n v="0.91616161616161595"/>
+    <x v="128"/>
+    <x v="130"/>
+    <n v="0.68060606060605999"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:04:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 51s (51473ms)"/>
+    <x v="79"/>
+    <n v="0.109696969696969"/>
+    <s v="0 0 0 2 1 11 12 11 14 34 "/>
+    <n v="85"/>
+    <n v="0.99191919191919098"/>
+    <x v="129"/>
+    <x v="131"/>
+    <n v="0.74444444444444402"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:35:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 06m 09s (369126ms)"/>
+    <x v="80"/>
+    <n v="6.3131313131313094E-2"/>
+    <s v="0 0 1 2 3 15 43 39 24 72 "/>
+    <n v="199"/>
+    <n v="0.952525252525252"/>
+    <x v="130"/>
+    <x v="132"/>
+    <n v="0.66404040404040399"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:25:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 06m 57s (417808ms)"/>
+    <x v="81"/>
+    <n v="6.5252525252525201E-2"/>
+    <s v="0 0 0 2 4 27 49 30 25 86 "/>
+    <n v="223"/>
+    <n v="0.96363636363636296"/>
+    <x v="131"/>
+    <x v="133"/>
+    <n v="0.72727272727272696"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:59:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 04m 50s (290340ms)"/>
+    <x v="82"/>
+    <n v="6.2020202020201899E-2"/>
+    <s v="0 0 0 0 7 25 49 43 30 97 "/>
+    <n v="251"/>
+    <n v="0.952525252525252"/>
+    <x v="132"/>
+    <x v="134"/>
+    <n v="0.76444444444444404"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:38:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 05m 12s (312823ms)"/>
+    <x v="83"/>
+    <n v="6.35353535353535E-2"/>
+    <s v="0 0 0 0 5 50 47 35 29 103 "/>
+    <n v="269"/>
+    <n v="0.98080808080808002"/>
+    <x v="133"/>
+    <x v="135"/>
+    <n v="0.79858585858585796"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:44:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 09s (9442ms)"/>
+    <x v="84"/>
+    <n v="6.0202020202020201E-2"/>
+    <s v="0 0 0 0 0 0 7 73 66 121 "/>
+    <n v="267"/>
+    <n v="0.88989898989898897"/>
+    <x v="134"/>
+    <x v="136"/>
+    <n v="0.80767676767676699"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:44:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 12s (12122ms)"/>
+    <x v="85"/>
+    <n v="6.04040404040403E-2"/>
+    <s v="0 0 0 0 0 0 4 43 69 140 "/>
+    <n v="256"/>
+    <n v="0.85353535353535304"/>
+    <x v="135"/>
+    <x v="137"/>
+    <n v="0.787979797979798"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:43:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 07s (7272ms)"/>
+    <x v="86"/>
+    <n v="0.06"/>
+    <s v="0 0 0 0 0 1 34 57 50 125 "/>
+    <n v="267"/>
+    <n v="0.90404040404040398"/>
+    <x v="136"/>
+    <x v="138"/>
+    <n v="0.79656565656565603"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (13ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (14ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:23:00"/>
+    <n v="1E-3"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (14ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (14ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="1E-3"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (14ms)"/>
+    <x v="87"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:44:00"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (582ms)"/>
+    <x v="87"/>
+    <n v="5.0505050505050804E-3"/>
+    <s v="0 0 0 0 0 0 0 0 0 2 "/>
+    <n v="2"/>
+    <n v="5.0505050505050501E-3"/>
+    <x v="96"/>
+    <x v="139"/>
+    <n v="5.0505050505050804E-3"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:44:00"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 00s (789ms)"/>
+    <x v="87"/>
+    <n v="7.4747474747475203E-3"/>
+    <s v="0 0 0 0 0 0 0 2 0 2 "/>
+    <n v="4"/>
+    <n v="1.01010101010101E-2"/>
+    <x v="137"/>
+    <x v="140"/>
+    <n v="9.0909090909090298E-3"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:43:00"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 01s (1276ms)"/>
+    <x v="87"/>
+    <n v="1.6969696969696899E-2"/>
+    <s v="0 0 0 0 0 0 1 2 4 4 "/>
+    <n v="11"/>
+    <n v="2.7272727272727199E-2"/>
+    <x v="96"/>
+    <x v="141"/>
+    <n v="2.4242424242424201E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:45:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 03s (3782ms)"/>
+    <x v="87"/>
+    <n v="2.4444444444444401E-2"/>
+    <s v="0 0 0 0 0 0 0 0 9 12 "/>
+    <n v="21"/>
+    <n v="5.0505050505050497E-2"/>
+    <x v="96"/>
+    <x v="142"/>
+    <n v="4.8181818181818201E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:34:00"/>
+    <n v="0.01"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 07s (7947ms)"/>
+    <x v="87"/>
+    <n v="9.0909090909090298E-3"/>
+    <s v="1 0 0 0 0 0 0 0 0 0 "/>
+    <n v="1"/>
+    <n v="0.99090909090909096"/>
+    <x v="138"/>
+    <x v="143"/>
+    <n v="9.9090909090909104E-2"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:45:00"/>
+    <n v="0.1"/>
+    <n v="0.35"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 00m 16s (16876ms)"/>
+    <x v="87"/>
+    <n v="0.06"/>
+    <s v="0 0 0 0 0 0 0 19 64 143 "/>
+    <n v="226"/>
+    <n v="0.79494949494949496"/>
+    <x v="139"/>
+    <x v="144"/>
+    <n v="0.75111111111111095"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:24:00"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 13m 53s (833354ms)"/>
+    <x v="87"/>
+    <n v="3.8888888888888799E-2"/>
+    <s v="0 0 0 0 0 103 75 58 63 86 "/>
+    <n v="385"/>
+    <n v="0.87979797979797902"/>
+    <x v="140"/>
+    <x v="145"/>
+    <n v="0.69171717171717095"/>
+  </r>
+  <r>
+    <d v="2013-03-25T05:44:00"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 14m 05s (845037ms)"/>
+    <x v="87"/>
+    <n v="3.7979797979798002E-2"/>
+    <s v="0 0 0 0 0 21 93 62 75 91 "/>
+    <n v="342"/>
+    <n v="0.78585858585858503"/>
+    <x v="141"/>
+    <x v="146"/>
+    <n v="0.65363636363636302"/>
+  </r>
+  <r>
+    <d v="2013-03-25T06:05:00"/>
+    <n v="0.01"/>
+    <n v="0.3"/>
+    <n v="1E-3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <b v="1"/>
+    <x v="6"/>
+    <s v="00h 19m 55s (1195738ms)"/>
+    <x v="87"/>
+    <n v="3.9292929292929199E-2"/>
+    <s v="0 0 0 0 0 34 86 72 67 80 "/>
+    <n v="339"/>
+    <n v="0.80202020202020197"/>
+    <x v="142"/>
+    <x v="147"/>
+    <n v="0.65131313131313096"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+    <x v="99"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="89">
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="52"/>
+        <item x="49"/>
+        <item x="83"/>
+        <item x="51"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="70"/>
+        <item x="68"/>
+        <item x="71"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="29"/>
+        <item x="79"/>
+        <item x="46"/>
+        <item x="78"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="62"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="74"/>
+        <item x="63"/>
+        <item x="73"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="64"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="65"/>
+        <item x="24"/>
+        <item x="66"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="61"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="58"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="35"/>
+        <item x="17"/>
+        <item x="30"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="37"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="54"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="44"/>
+        <item x="57"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="56"/>
+        <item x="5"/>
+        <item x="59"/>
+        <item x="55"/>
+        <item x="0"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="144">
+        <item x="138"/>
+        <item x="66"/>
+        <item x="74"/>
+        <item x="69"/>
+        <item x="76"/>
+        <item x="86"/>
+        <item x="84"/>
+        <item x="88"/>
+        <item x="81"/>
+        <item x="75"/>
+        <item x="40"/>
+        <item x="80"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="35"/>
+        <item x="65"/>
+        <item x="79"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="33"/>
+        <item x="87"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="83"/>
+        <item x="78"/>
+        <item x="28"/>
+        <item x="77"/>
+        <item x="82"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="39"/>
+        <item x="128"/>
+        <item x="36"/>
+        <item x="129"/>
+        <item x="2"/>
+        <item x="55"/>
+        <item x="49"/>
+        <item x="127"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="44"/>
+        <item x="123"/>
+        <item x="126"/>
+        <item x="45"/>
+        <item x="43"/>
+        <item x="1"/>
+        <item x="51"/>
+        <item x="42"/>
+        <item x="122"/>
+        <item x="52"/>
+        <item x="13"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="7"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="53"/>
+        <item x="3"/>
+        <item x="50"/>
+        <item x="130"/>
+        <item x="54"/>
+        <item x="5"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="47"/>
+        <item x="59"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="64"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="131"/>
+        <item x="10"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="14"/>
+        <item x="105"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="99"/>
+        <item x="103"/>
+        <item x="102"/>
+        <item x="104"/>
+        <item x="98"/>
+        <item x="101"/>
+        <item x="100"/>
+        <item x="136"/>
+        <item x="134"/>
+        <item x="113"/>
+        <item x="135"/>
+        <item x="110"/>
+        <item x="107"/>
+        <item x="137"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="112"/>
+        <item x="92"/>
+        <item x="142"/>
+        <item x="106"/>
+        <item x="111"/>
+        <item x="109"/>
+        <item x="89"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="90"/>
+        <item x="115"/>
+        <item x="91"/>
+        <item x="117"/>
+        <item x="116"/>
+        <item x="118"/>
+        <item x="114"/>
+        <item x="119"/>
+        <item x="108"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="16"/>
+        <item x="97"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="149">
+        <item x="16"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="139"/>
+        <item x="143"/>
+        <item x="140"/>
+        <item x="40"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="80"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="86"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="130"/>
+        <item x="66"/>
+        <item x="49"/>
+        <item x="74"/>
+        <item x="25"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="46"/>
+        <item x="95"/>
+        <item x="75"/>
+        <item x="55"/>
+        <item x="44"/>
+        <item x="76"/>
+        <item x="26"/>
+        <item x="129"/>
+        <item x="126"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="88"/>
+        <item x="61"/>
+        <item x="79"/>
+        <item x="124"/>
+        <item x="85"/>
+        <item x="69"/>
+        <item x="36"/>
+        <item x="45"/>
+        <item x="71"/>
+        <item x="52"/>
+        <item x="42"/>
+        <item x="56"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="81"/>
+        <item x="93"/>
+        <item x="41"/>
+        <item x="12"/>
+        <item x="29"/>
+        <item x="51"/>
+        <item x="72"/>
+        <item x="48"/>
+        <item x="65"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="50"/>
+        <item x="64"/>
+        <item x="132"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="2"/>
+        <item x="53"/>
+        <item x="73"/>
+        <item x="54"/>
+        <item x="58"/>
+        <item x="87"/>
+        <item x="63"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="121"/>
+        <item x="118"/>
+        <item x="19"/>
+        <item x="94"/>
+        <item x="30"/>
+        <item x="120"/>
+        <item x="116"/>
+        <item x="31"/>
+        <item x="133"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="57"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="122"/>
+        <item x="62"/>
+        <item x="1"/>
+        <item x="117"/>
+        <item x="123"/>
+        <item x="107"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="134"/>
+        <item x="119"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="135"/>
+        <item x="106"/>
+        <item x="144"/>
+        <item x="109"/>
+        <item x="8"/>
+        <item x="138"/>
+        <item x="100"/>
+        <item x="5"/>
+        <item x="104"/>
+        <item x="111"/>
+        <item x="114"/>
+        <item x="105"/>
+        <item x="101"/>
+        <item x="10"/>
+        <item x="147"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="146"/>
+        <item x="112"/>
+        <item x="115"/>
+        <item x="0"/>
+        <item x="103"/>
+        <item x="110"/>
+        <item x="145"/>
+        <item x="102"/>
+        <item x="108"/>
+        <item x="113"/>
+        <item x="92"/>
+        <item x="89"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Average of 1.0-Entropy" fld="16" subtotal="average" baseField="9" baseItem="1"/>
+    <dataField name="Average of Accuracy" fld="11" subtotal="average" baseField="9" baseItem="1"/>
+    <dataField name="Average of F1Measure" fld="17" subtotal="average" baseField="9" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,33 +8181,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.27449349111052029</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.65020978009259145</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.36318648386936042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.6136293521141114</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.45508826583592893</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.38324910958236252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.7073032001940586E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.58792270531400914</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.34615848298751661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.97781651973503758</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.21812601596428591</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.48355741071901953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.91857052558539098</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.35868055555555556</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5152216255050045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.51875998883808982</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.49205053690540834</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.40774514056710959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J233" sqref="J233"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>325</v>
       </c>
@@ -1586,7 +8394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41357.056250000001</v>
       </c>
@@ -1645,7 +8453,7 @@
         <v>0.81481481481481399</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -1704,7 +8512,7 @@
         <v>0.65840220385674897</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -1763,7 +8571,7 @@
         <v>0.66758494031221305</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -1822,7 +8630,7 @@
         <v>0.76553412917049202</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -1881,7 +8689,7 @@
         <v>0.79384756657483901</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41357.060416666667</v>
       </c>
@@ -1940,7 +8748,7 @@
         <v>0.80440771349862195</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -1999,7 +8807,7 @@
         <v>0.23232323232323199</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -2058,7 +8866,7 @@
         <v>0.18288950107131899</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41357.055555555555</v>
       </c>
@@ -2117,7 +8925,7 @@
         <v>0.63973063973063904</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -2176,7 +8984,7 @@
         <v>0.60667278849096995</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41357.059027777781</v>
       </c>
@@ -2235,7 +9043,7 @@
         <v>0.63131313131313105</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -2294,7 +9102,7 @@
         <v>0.58448117539026601</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41357.056944444441</v>
       </c>
@@ -2353,7 +9161,7 @@
         <v>0.310376492194674</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -2412,7 +9220,7 @@
         <v>0.19528619528619501</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2471,7 +9279,7 @@
         <v>0.30272421181511999</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -2530,7 +9338,7 @@
         <v>0.16268748086929899</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2583,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2636,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2689,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2742,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2795,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2848,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2901,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -2954,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -3007,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -3060,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -3113,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3166,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3219,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3272,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3325,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3378,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3431,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41357.053472222222</v>
       </c>
@@ -3484,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41357.061111111114</v>
       </c>
@@ -3537,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -3590,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -3649,7 +10457,7 @@
         <v>0.74560546875</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41357.071527777778</v>
       </c>
@@ -3708,7 +10516,7 @@
         <v>0.84488932291666596</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -3767,7 +10575,7 @@
         <v>0.78190104166666596</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -3826,7 +10634,7 @@
         <v>0.66682942708333304</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41357.073611111111</v>
       </c>
@@ -3885,7 +10693,7 @@
         <v>0.82552083333333304</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -3944,7 +10752,7 @@
         <v>0.75537109375</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41357.069444444445</v>
       </c>
@@ -4003,7 +10811,7 @@
         <v>0.83854166666666596</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41357.06527777778</v>
       </c>
@@ -4062,7 +10870,7 @@
         <v>0.80924479166666596</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41357.070138888892</v>
       </c>
@@ -4121,7 +10929,7 @@
         <v>0.27408854166666602</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -4180,7 +10988,7 @@
         <v>0.38020833333333298</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41357.063888888886</v>
       </c>
@@ -4239,7 +11047,7 @@
         <v>0.64029947916666596</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41357.072222222225</v>
       </c>
@@ -4298,7 +11106,7 @@
         <v>0.27473958333333298</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4357,7 +11165,7 @@
         <v>0.57926432291666596</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41357.072916666664</v>
       </c>
@@ -4416,7 +11224,7 @@
         <v>0.60725911458333304</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41357.068055555559</v>
       </c>
@@ -4475,7 +11283,7 @@
         <v>0.62646484375</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41357.065972222219</v>
       </c>
@@ -4534,7 +11342,7 @@
         <v>0.45735677083333298</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4593,7 +11401,7 @@
         <v>6.3802083333333301E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4652,7 +11460,7 @@
         <v>7.1940104166666602E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4711,7 +11519,7 @@
         <v>6.0546875E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4770,7 +11578,7 @@
         <v>0.48616536458333298</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41357.070833333331</v>
       </c>
@@ -4829,7 +11637,7 @@
         <v>0.64339192708333304</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41357.0625</v>
       </c>
@@ -4888,7 +11696,7 @@
         <v>0.49951171875</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41357.074305555558</v>
       </c>
@@ -4947,7 +11755,7 @@
         <v>0.6318359375</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -5006,7 +11814,7 @@
         <v>2.44140625E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5059,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5112,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5165,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5218,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41357.0625</v>
       </c>
@@ -5271,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41357.0625</v>
       </c>
@@ -5324,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41357.0625</v>
       </c>
@@ -5377,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41357.0625</v>
       </c>
@@ -5430,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41357.0625</v>
       </c>
@@ -5483,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5536,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41357.061805555553</v>
       </c>
@@ -5589,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41357.0625</v>
       </c>
@@ -5642,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -5701,7 +12509,7 @@
         <v>0.86656282450674904</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -5760,7 +12568,7 @@
         <v>0.90706126687435096</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -5819,7 +12627,7 @@
         <v>0.87902388369677997</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -5878,7 +12686,7 @@
         <v>0.88058151609553403</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -5937,7 +12745,7 @@
         <v>0.82969885773624097</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -5996,7 +12804,7 @@
         <v>0.72585669781931395</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6055,7 +12863,7 @@
         <v>0.72274143302180605</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -6114,7 +12922,7 @@
         <v>0.73468328141225303</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6173,7 +12981,7 @@
         <v>0.60176531671858702</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6232,7 +13040,7 @@
         <v>0.77414330218068494</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -6291,7 +13099,7 @@
         <v>0.70612668743509799</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -6350,7 +13158,7 @@
         <v>0.55036344755970901</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6409,7 +13217,7 @@
         <v>0.70612668743509799</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6468,7 +13276,7 @@
         <v>0.74922118380062297</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6527,7 +13335,7 @@
         <v>0.42471443406022802</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6586,7 +13394,7 @@
         <v>0.57892004153686405</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -6645,7 +13453,7 @@
         <v>0.60695742471443404</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6704,7 +13512,7 @@
         <v>0.63187954309449601</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -6763,7 +13571,7 @@
         <v>0.48909657320872202</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6822,7 +13630,7 @@
         <v>0.61993769470404902</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -6881,7 +13689,7 @@
         <v>0.50623052959501502</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -6940,7 +13748,7 @@
         <v>0.60280373831775702</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41357.075694444444</v>
       </c>
@@ -6999,7 +13807,7 @@
         <v>0.65420560747663503</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -7058,7 +13866,7 @@
         <v>0.61838006230529596</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7111,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7164,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7217,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7270,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7323,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7376,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7429,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7482,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7535,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7588,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7641,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41357.074999999997</v>
       </c>
@@ -7694,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -7753,7 +14561,7 @@
         <v>0.87874396135265698</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -7812,7 +14620,7 @@
         <v>0.66763285024154495</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -7871,7 +14679,7 @@
         <v>0.79855072463768095</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -7930,7 +14738,7 @@
         <v>0.73043478260869499</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -7989,7 +14797,7 @@
         <v>0.86763285024154502</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8048,7 +14856,7 @@
         <v>0.86618357487922704</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8107,7 +14915,7 @@
         <v>0.61545893719806699</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8166,7 +14974,7 @@
         <v>0.55120772946859897</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -8225,7 +15033,7 @@
         <v>0.52898550724637605</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8284,7 +15092,7 @@
         <v>0.43091787439613499</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8343,7 +15151,7 @@
         <v>0.25603864734299497</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8402,7 +15210,7 @@
         <v>0.41207729468599003</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8461,7 +15269,7 @@
         <v>0.51884057971014497</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8520,7 +15328,7 @@
         <v>0.72318840579710097</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8579,7 +15387,7 @@
         <v>0.45024154589371901</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8638,7 +15446,7 @@
         <v>0.25555555555555498</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8697,7 +15505,7 @@
         <v>0.44444444444444398</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8756,7 +15564,7 @@
         <v>0.31014492753623102</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8815,7 +15623,7 @@
         <v>0.323671497584541</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8874,7 +15682,7 @@
         <v>0.20386473429951599</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -8933,7 +15741,7 @@
         <v>0.57101449275362304</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41357.07708333333</v>
       </c>
@@ -8992,7 +15800,7 @@
         <v>0.170048309178743</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9051,7 +15859,7 @@
         <v>0.33091787439613501</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -9110,7 +15918,7 @@
         <v>0.190821256038647</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9163,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9216,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9269,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9322,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9375,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9428,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9481,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9534,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9587,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9640,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9693,7 +16501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41357.076388888891</v>
       </c>
@@ -9746,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41358.120138888888</v>
       </c>
@@ -9805,7 +16613,7 @@
         <v>0.79501100880704501</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41358.152777777781</v>
       </c>
@@ -9864,7 +16672,7 @@
         <v>0.80870529757138998</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41358.195138888892</v>
       </c>
@@ -9923,7 +16731,7 @@
         <v>0.82319188684280697</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41358.09097222222</v>
       </c>
@@ -9982,7 +16790,7 @@
         <v>0.765996130237523</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41358.11041666667</v>
       </c>
@@ -10041,7 +16849,7 @@
         <v>0.35793634907926303</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41358.078472222223</v>
       </c>
@@ -10100,7 +16908,7 @@
         <v>0.438617560715238</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41358.140277777777</v>
       </c>
@@ -10159,7 +16967,7 @@
         <v>0.27597911662663399</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41358.078472222223</v>
       </c>
@@ -10218,7 +17026,7 @@
         <v>1.33440085401659E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41358.109722222223</v>
       </c>
@@ -10277,7 +17085,7 @@
         <v>5.17080330931452E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41358.174305555556</v>
       </c>
@@ -10336,7 +17144,7 @@
         <v>2.3352014945288101E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41358.140277777777</v>
       </c>
@@ -10389,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41357.077777777777</v>
       </c>
@@ -10424,7 +17232,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41357.098611111112</v>
       </c>
@@ -10459,7 +17267,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41357.119444444441</v>
       </c>
@@ -10494,7 +17302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41357.140277777777</v>
       </c>
@@ -10529,7 +17337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41357.161111111112</v>
       </c>
@@ -10564,7 +17372,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41357.182638888888</v>
       </c>
@@ -10599,7 +17407,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41357.203472222223</v>
       </c>
@@ -10634,7 +17442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41357.224305555559</v>
       </c>
@@ -10669,7 +17477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41357.245138888888</v>
       </c>
@@ -10704,7 +17512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41357.265972222223</v>
       </c>
@@ -10739,7 +17547,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41357.286805555559</v>
       </c>
@@ -10774,7 +17582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41357.307638888888</v>
       </c>
@@ -10809,7 +17617,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41357.328472222223</v>
       </c>
@@ -10844,7 +17652,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41357.349305555559</v>
       </c>
@@ -10879,7 +17687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41357.370138888888</v>
       </c>
@@ -10914,7 +17722,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41357.390972222223</v>
       </c>
@@ -10949,7 +17757,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41357.411805555559</v>
       </c>
@@ -10984,7 +17792,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41357.432638888888</v>
       </c>
@@ -11019,7 +17827,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41357.453472222223</v>
       </c>
@@ -11054,7 +17862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41357.474305555559</v>
       </c>
@@ -11089,7 +17897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41357.495138888888</v>
       </c>
@@ -11124,7 +17932,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41358.515972222223</v>
       </c>
@@ -11159,7 +17967,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41358.536805555559</v>
       </c>
@@ -11194,7 +18002,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>41358.057638888888</v>
       </c>
@@ -11229,7 +18037,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>41358.174305555556</v>
       </c>
@@ -11264,7 +18072,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11323,7 +18131,7 @@
         <v>0.85661764705882304</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11382,7 +18190,7 @@
         <v>0.85735294117646998</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>41358.22152777778</v>
       </c>
@@ -11441,7 +18249,7 @@
         <v>0.88933823529411704</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>41358.222222222219</v>
       </c>
@@ -11500,7 +18308,7 @@
         <v>0.81507352941176403</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11559,7 +18367,7 @@
         <v>0.82941176470588196</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>41358.222916666666</v>
       </c>
@@ -11618,7 +18426,7 @@
         <v>0.840808823529411</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11677,7 +18485,7 @@
         <v>0.84264705882352897</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11736,7 +18544,7 @@
         <v>0.72867647058823504</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>41358.222916666666</v>
       </c>
@@ -11795,7 +18603,7 @@
         <v>0.775367647058823</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11854,7 +18662,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11913,7 +18721,7 @@
         <v>0.73235294117646998</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -11972,7 +18780,7 @@
         <v>0.71911764705882297</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>41358.220833333333</v>
       </c>
@@ -12031,7 +18839,7 @@
         <v>0.75330882352941098</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>41358.22152777778</v>
       </c>
@@ -12090,7 +18898,7 @@
         <v>0.75588235294117601</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -12149,7 +18957,7 @@
         <v>0.73823529411764699</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>41358.223611111112</v>
       </c>
@@ -12208,7 +19016,7 @@
         <v>0.74154411764705797</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -12267,7 +19075,7 @@
         <v>0.50514705882352895</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>41358.22152777778</v>
       </c>
@@ -12326,7 +19134,7 @@
         <v>0.55441176470588205</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -12385,7 +19193,7 @@
         <v>0.50220588235294095</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>41358.223611111112</v>
       </c>
@@ -12444,7 +19252,7 @@
         <v>0.55477941176470502</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -12503,7 +19311,7 @@
         <v>0.49117647058823499</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -12562,7 +19370,7 @@
         <v>0.497058823529411</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>41358.222222222219</v>
       </c>
@@ -12621,7 +19429,7 @@
         <v>0.53676470588235203</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>41358.220833333333</v>
       </c>
@@ -12680,7 +19488,7 @@
         <v>0.53051470588235194</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12733,7 +19541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12786,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12839,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12892,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12945,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -12998,7 +19806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -13051,7 +19859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -13104,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -13157,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>41358.220833333333</v>
       </c>
@@ -13210,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -13263,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>41358.220138888886</v>
       </c>
@@ -13316,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41358.279861111114</v>
       </c>
@@ -13375,7 +20183,7 @@
         <v>0.78777777777777702</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>41358.280555555553</v>
       </c>
@@ -13434,7 +20242,7 @@
         <v>0.72515151515151499</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>41358.238194444442</v>
       </c>
@@ -13493,7 +20301,7 @@
         <v>0.80858585858585796</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>41358.27847222222</v>
       </c>
@@ -13552,7 +20360,7 @@
         <v>0.79939393939393899</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>41358.28125</v>
       </c>
@@ -13611,7 +20419,7 @@
         <v>0.78959595959595896</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>41358.272916666669</v>
       </c>
@@ -13670,7 +20478,7 @@
         <v>0.75505050505050497</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>41358.28125</v>
       </c>
@@ -13729,7 +20537,7 @@
         <v>0.68060606060605999</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>41358.25277777778</v>
       </c>
@@ -13788,7 +20596,7 @@
         <v>0.74444444444444402</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>41358.274305555555</v>
       </c>
@@ -13847,7 +20655,7 @@
         <v>0.66404040404040399</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>41358.267361111109</v>
       </c>
@@ -13906,7 +20714,7 @@
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>41358.249305555553</v>
       </c>
@@ -13965,7 +20773,7 @@
         <v>0.76444444444444404</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>41358.234722222223</v>
       </c>
@@ -14024,7 +20832,7 @@
         <v>0.79858585858585796</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>41358.280555555553</v>
       </c>
@@ -14083,7 +20891,7 @@
         <v>0.80767676767676699</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>41358.280555555553</v>
       </c>
@@ -14142,7 +20950,7 @@
         <v>0.787979797979798</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>41358.279861111114</v>
       </c>
@@ -14201,7 +21009,7 @@
         <v>0.79656565656565603</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14254,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14307,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14360,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14413,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14466,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14519,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14572,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14625,7 +21433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14678,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>41358.224305555559</v>
       </c>
@@ -14731,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14784,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -14837,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>41358.280555555553</v>
       </c>
@@ -14896,7 +21704,7 @@
         <v>5.0505050505050804E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>41358.280555555553</v>
       </c>
@@ -14955,7 +21763,7 @@
         <v>9.0909090909090298E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>41358.279861111114</v>
       </c>
@@ -15014,7 +21822,7 @@
         <v>2.4242424242424201E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>41358.28125</v>
       </c>
@@ -15073,7 +21881,7 @@
         <v>4.8181818181818201E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>41358.273611111108</v>
       </c>
@@ -15132,7 +21940,7 @@
         <v>9.9090909090909104E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>41358.28125</v>
       </c>
@@ -15191,7 +21999,7 @@
         <v>0.75111111111111095</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>41358.224999999999</v>
       </c>
@@ -15250,7 +22058,7 @@
         <v>0.69171717171717095</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>41358.238888888889</v>
       </c>
@@ -15309,7 +22117,7 @@
         <v>0.65363636363636302</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>41358.253472222219</v>
       </c>
